--- a/opm_hero_property/heroes/63.xlsx
+++ b/opm_hero_property/heroes/63.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11026</v>
       </c>
       <c r="D4" t="n">
-        <v>11026</v>
+        <v>11520</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
@@ -1304,7 +1305,7 @@
         <v>12189</v>
       </c>
       <c r="D5" t="n">
-        <v>12189</v>
+        <v>13243</v>
       </c>
       <c r="E5" t="n">
         <v>372</v>
@@ -1411,7 +1412,7 @@
         <v>13557</v>
       </c>
       <c r="D6" t="n">
-        <v>13557</v>
+        <v>15271</v>
       </c>
       <c r="E6" t="n">
         <v>509</v>
@@ -1518,7 +1519,7 @@
         <v>15131</v>
       </c>
       <c r="D7" t="n">
-        <v>15131</v>
+        <v>19502</v>
       </c>
       <c r="E7" t="n">
         <v>955</v>
@@ -1625,7 +1626,7 @@
         <v>16910</v>
       </c>
       <c r="D8" t="n">
-        <v>16910</v>
+        <v>25356</v>
       </c>
       <c r="E8" t="n">
         <v>1415</v>
@@ -1732,7 +1733,7 @@
         <v>18962</v>
       </c>
       <c r="D9" t="n">
-        <v>18962</v>
+        <v>33236</v>
       </c>
       <c r="E9" t="n">
         <v>1868</v>
@@ -1839,7 +1840,7 @@
         <v>20056</v>
       </c>
       <c r="D10" t="n">
-        <v>20056</v>
+        <v>39799</v>
       </c>
       <c r="E10" t="n">
         <v>2208</v>
@@ -1946,7 +1947,7 @@
         <v>21356</v>
       </c>
       <c r="D11" t="n">
-        <v>21356</v>
+        <v>47857</v>
       </c>
       <c r="E11" t="n">
         <v>2576</v>
@@ -2053,7 +2054,7 @@
         <v>24093</v>
       </c>
       <c r="D12" t="n">
-        <v>24093</v>
+        <v>62199</v>
       </c>
       <c r="E12" t="n">
         <v>3170</v>
@@ -2160,7 +2161,7 @@
         <v>24640</v>
       </c>
       <c r="D13" t="n">
-        <v>24640</v>
+        <v>64226</v>
       </c>
       <c r="E13" t="n">
         <v>3566</v>
@@ -2267,7 +2268,7 @@
         <v>25187</v>
       </c>
       <c r="D14" t="n">
-        <v>25187</v>
+        <v>66253</v>
       </c>
       <c r="E14" t="n">
         <v>3962</v>
@@ -2374,7 +2375,7 @@
         <v>25735</v>
       </c>
       <c r="D15" t="n">
-        <v>25735</v>
+        <v>68280</v>
       </c>
       <c r="E15" t="n">
         <v>4359</v>
@@ -2481,7 +2482,7 @@
         <v>26282</v>
       </c>
       <c r="D16" t="n">
-        <v>26282</v>
+        <v>70308</v>
       </c>
       <c r="E16" t="n">
         <v>4755</v>
@@ -2588,7 +2589,7 @@
         <v>26829</v>
       </c>
       <c r="D17" t="n">
-        <v>26829</v>
+        <v>72335</v>
       </c>
       <c r="E17" t="n">
         <v>5151</v>
@@ -6534,4 +6535,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35560.7289472</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4214.294261499999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2580.3423927</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>63</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>47985.3782752</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6427.335129999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3807.454324</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>82238.99463679999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11988.522</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7805.612874</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>90391.93083584</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13114.63064</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8922.466162000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3208.32592;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,11479.40429856;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>89111.98345088</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13152.87928</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9154.943162200001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6416.65184;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,22958.80859712;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>63</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>291772.2610944</v>
+      </c>
+      <c r="U7" t="n">
+        <v>42998.62184</v>
+      </c>
+      <c r="V7" t="n">
+        <v>33258.5600581</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>63</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>257499.76821472</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39646.4619808</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29745.5548223</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3458.4380224;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,12403.64368848;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>306923.347608</v>
+      </c>
+      <c r="U9" t="n">
+        <v>46004.925744</v>
+      </c>
+      <c r="V9" t="n">
+        <v>36080.32983382</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17292.190112;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,62018.2184424;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>63</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>321270.543832</v>
+      </c>
+      <c r="U10" t="n">
+        <v>47525.472144</v>
+      </c>
+      <c r="V10" t="n">
+        <v>37647.85588482</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3480</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17292.190112;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,62018.2184424;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>63</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>378476.8492772</v>
+      </c>
+      <c r="U11" t="n">
+        <v>54956.566072</v>
+      </c>
+      <c r="V11" t="n">
+        <v>45060.23766704</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,34173.832696;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,122547.91527656;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>335617.740056</v>
+      </c>
+      <c r="U12" t="n">
+        <v>49046.018544</v>
+      </c>
+      <c r="V12" t="n">
+        <v>39215.38193582001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17292.190112;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,62018.2184424;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>63</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>481413.18924768</v>
+      </c>
+      <c r="U13" t="n">
+        <v>72578.28672187999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>63551.8896201</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,21726.58182864;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,77971.45503312;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>490576.68425136</v>
+      </c>
+      <c r="U14" t="n">
+        <v>73841.98571235999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>64806.12058864</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,25347.67880008;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,90966.69753864;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>63</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1082820.87740858</v>
+      </c>
+      <c r="U15" t="n">
+        <v>174243.61114712</v>
+      </c>
+      <c r="V15" t="n">
+        <v>170061.24768</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,33589.536844;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,120727.93921527;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>63</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5461517.944576</v>
+      </c>
+      <c r="U16" t="n">
+        <v>875806.6031840501</v>
+      </c>
+      <c r="V16" t="n">
+        <v>819113.6495764999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,82067;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,325733.5036074;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8781307.493408</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1416427.6833265</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1312986.016398</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,82067;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,333527;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>63</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>235861.37386432</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41079.49148647999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26587.6875766</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2583.25832752;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,8828.11892768;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>63</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>322851.81840112</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52457.23846392</v>
+      </c>
+      <c r="V19" t="n">
+        <v>38120.17526926</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3105.03835576;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,10663.2103784;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>63</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>420662.48506624</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66055.92725541</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54752.86491008</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3480</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,4993.21001736;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,17530.26244096;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>63</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>489031.77358806</v>
+      </c>
+      <c r="U21" t="n">
+        <v>78025.66236780002</v>
+      </c>
+      <c r="V21" t="n">
+        <v>66344.5684486</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6408.64798854;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,22639.108363760002;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>63</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>560246.5720759999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>94899.13692136001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>81322.76764832</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7629.14400208;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,27047.360674000003;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>63</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>705783.027552</v>
+      </c>
+      <c r="U23" t="n">
+        <v>129574.33851985</v>
+      </c>
+      <c r="V23" t="n">
+        <v>111822.2871045</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,9591;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,37379.4471873;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/63.xlsx
+++ b/opm_hero_property/heroes/63.xlsx
@@ -6799,31 +6799,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35560.7289472</v>
+        <v>7794.276400000001</v>
       </c>
       <c r="U2" t="n">
-        <v>4214.294261499999</v>
+        <v>1494.3933</v>
       </c>
       <c r="V2" t="n">
-        <v>2580.3423927</v>
+        <v>600.8631</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>47985.3782752</v>
+        <v>20857.9249</v>
       </c>
       <c r="U3" t="n">
-        <v>6427.335129999999</v>
+        <v>3708.446</v>
       </c>
       <c r="V3" t="n">
-        <v>3807.454324</v>
+        <v>1831.172</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB3" t="n">
         <v>400</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7021,31 +7021,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>82238.99463679999</v>
+        <v>58491.6816</v>
       </c>
       <c r="U4" t="n">
-        <v>11988.522</v>
+        <v>9524.4</v>
       </c>
       <c r="V4" t="n">
-        <v>7805.612874</v>
+        <v>5891.322</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA4" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7132,31 +7132,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>90391.93083584</v>
+        <v>66644.61779904</v>
       </c>
       <c r="U5" t="n">
-        <v>13114.63064</v>
+        <v>10650.50864</v>
       </c>
       <c r="V5" t="n">
-        <v>8922.466162000001</v>
+        <v>7008.175288</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AA5" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070</v>
+        <v>820</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,3208.32592;41,0.0</t>
+          <t>21,0;31,3208;41,0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,11479.40429856;31,0.0;41,0.0</t>
+          <t>21,11479;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7251,31 +7251,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>89111.98345088</v>
+        <v>75111.98345088</v>
       </c>
       <c r="U6" t="n">
-        <v>13152.87928</v>
+        <v>11812.87928</v>
       </c>
       <c r="V6" t="n">
-        <v>9154.943162200001</v>
+        <v>8154.9431622</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>820</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,6416.65184;41,0.0</t>
+          <t>21,0;31,6416;41,0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,22958.80859712;31,0.0;41,0.0</t>
+          <t>21,22958;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7370,13 +7370,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>291772.2610944</v>
+        <v>247295.9528</v>
       </c>
       <c r="U7" t="n">
-        <v>42998.62184</v>
+        <v>38284.928</v>
       </c>
       <c r="V7" t="n">
-        <v>33258.5600581</v>
+        <v>28399.2293</v>
       </c>
       <c r="W7" t="n">
         <v>1940</v>
@@ -7391,7 +7391,7 @@
         <v>930</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>2880</v>
       </c>
       <c r="AB7" t="n">
         <v>2010</v>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,3458.4380224;41,0.0</t>
+          <t>21,0;31,3458;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,12403.64368848;31,0.0;41,0.0</t>
+          <t>21,12403;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,17292.190112;41,0.0</t>
+          <t>21,0;31,17292;41,0</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,62018.2184424;31,0.0;41,0.0</t>
+          <t>21,62018;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,17292.190112;41,0.0</t>
+          <t>21,0;31,17292;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,62018.2184424;31,0.0;41,0.0</t>
+          <t>21,62018;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,34173.832696;41,0.0</t>
+          <t>21,0;31,34173;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,122547.91527656;31,0.0;41,0.0</t>
+          <t>21,122547;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,17292.190112;41,0.0</t>
+          <t>21,0;31,17292;41,0</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,62018.2184424;31,0.0;41,0.0</t>
+          <t>21,62018;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,21726.58182864;41,0.0</t>
+          <t>21,0;31,21726;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,77971.45503312;31,0.0;41,0.0</t>
+          <t>21,77971;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,25347.67880008;41,0.0</t>
+          <t>21,0;31,25347;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,90966.69753864;31,0.0;41,0.0</t>
+          <t>21,90966;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,33589.536844;41,0.0</t>
+          <t>21,0;31,33589;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,120727.93921527;31,0.0;41,0.0</t>
+          <t>21,120727;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,82067;41,0.0</t>
+          <t>21,0;31,82067;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,325733.5036074;31,0.0;41,0.0</t>
+          <t>21,325733;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,82067;41,0.0</t>
+          <t>21,0;31,82067;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,333527;31,0.0;41,0.0</t>
+          <t>21,333527;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>235861.37386432</v>
+        <v>221861.37386432</v>
       </c>
       <c r="U18" t="n">
-        <v>41079.49148647999</v>
+        <v>39739.49148647999</v>
       </c>
       <c r="V18" t="n">
-        <v>26587.6875766</v>
+        <v>25587.6875766</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AA18" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB18" t="n">
-        <v>1070</v>
+        <v>820</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,2583.25832752;41,0.0</t>
+          <t>21,0;31,2583;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,8828.11892768;31,0.0;41,0.0</t>
+          <t>21,8828;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8790,31 +8790,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>322851.81840112</v>
+        <v>293451.81840112</v>
       </c>
       <c r="U19" t="n">
-        <v>52457.23846392</v>
+        <v>49643.23846392</v>
       </c>
       <c r="V19" t="n">
-        <v>38120.17526926</v>
+        <v>36020.17526926</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>860</v>
+        <v>590</v>
       </c>
       <c r="AA19" t="n">
-        <v>3180</v>
+        <v>2100</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>1265</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,3105.03835576;41,0.0</t>
+          <t>21,0;31,3105;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,10663.2103784;31,0.0;41,0.0</t>
+          <t>21,10663;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,4993.21001736;41,0.0</t>
+          <t>21,0;31,4993;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,17530.26244096;31,0.0;41,0.0</t>
+          <t>21,17530;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,6408.64798854;41,0.0</t>
+          <t>21,0;31,6408;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,22639.108363760002;31,0.0;41,0.0</t>
+          <t>21,22639;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,7629.14400208;41,0.0</t>
+          <t>21,0;31,7629;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,27047.360674000003;31,0.0;41,0.0</t>
+          <t>21,27047;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,9591;41,0.0</t>
+          <t>21,0;31,9591;41,0</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,37379.4471873;31,0.0;41,0.0</t>
+          <t>21,37379;31,0;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/63.xlsx
+++ b/opm_hero_property/heroes/63.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7794.276400000001</v>
+        <v>5596394.944576</v>
       </c>
       <c r="U2" t="n">
-        <v>1494.3933</v>
+        <v>899534.6031840501</v>
       </c>
       <c r="V2" t="n">
-        <v>600.8631</v>
+        <v>840953.6495764999</v>
       </c>
       <c r="W2" t="n">
-        <v>550</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>1910</v>
       </c>
       <c r="AA2" t="n">
-        <v>320</v>
+        <v>3780</v>
       </c>
       <c r="AB2" t="n">
-        <v>200</v>
+        <v>2990</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,82067;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,325733;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11181501.284805</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2275186.866665025</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>595228.140140795</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16653125.19161082</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6964,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>20857.9249</v>
+        <v>705783.027552</v>
       </c>
       <c r="U3" t="n">
-        <v>3708.446</v>
+        <v>129574.33851985</v>
       </c>
       <c r="V3" t="n">
-        <v>1831.172</v>
+        <v>111822.2871045</v>
       </c>
       <c r="W3" t="n">
-        <v>638</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>160</v>
+        <v>1910</v>
       </c>
       <c r="AA3" t="n">
-        <v>640</v>
+        <v>3780</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,9591;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,37379;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1267423.145285</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>258523.384326425</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>69406.93457841501</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2257282.11418984</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7071,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7089,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7121,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>58491.6816</v>
+        <v>7794.276400000001</v>
       </c>
       <c r="U4" t="n">
-        <v>9524.4</v>
+        <v>1494.3933</v>
       </c>
       <c r="V4" t="n">
-        <v>5891.322</v>
+        <v>600.8631</v>
       </c>
       <c r="W4" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7174,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18791.152995</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23290.052995</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7206,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7224,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,66 +7256,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>66644.61779904</v>
+        <v>20857.9249</v>
       </c>
       <c r="U5" t="n">
-        <v>10650.50864</v>
+        <v>3708.446</v>
       </c>
       <c r="V5" t="n">
-        <v>7008.175288</v>
+        <v>1831.172</v>
       </c>
       <c r="W5" t="n">
-        <v>900</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,3208;41,0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,11479;31,0;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47765.3413</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59672.1413</v>
       </c>
     </row>
     <row r="6">
@@ -7212,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7243,21 +7387,21 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>75111.98345088</v>
+        <v>58491.6816</v>
       </c>
       <c r="U6" t="n">
-        <v>11812.87928</v>
+        <v>9524.4</v>
       </c>
       <c r="V6" t="n">
-        <v>8154.9431622</v>
+        <v>5891.322</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7269,13 +7413,13 @@
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
         <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7290,23 +7434,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,6416;41,0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,22958;31,0;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>114396.8431</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>162652.6431</v>
       </c>
     </row>
     <row r="7">
@@ -7316,31 +7476,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7352,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7366,59 +7526,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>247295.9528</v>
+        <v>66644.61779904</v>
       </c>
       <c r="U7" t="n">
-        <v>38284.928</v>
+        <v>10650.50864</v>
       </c>
       <c r="V7" t="n">
-        <v>28399.2293</v>
+        <v>7008.175288</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3208;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,11479;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>114396.8431</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>22344.99222104</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>185179.63532104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7427,31 +7619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7463,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7477,66 +7669,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>257499.76821472</v>
+        <v>75111.98345088</v>
       </c>
       <c r="U8" t="n">
-        <v>39646.4619808</v>
+        <v>11812.87928</v>
       </c>
       <c r="V8" t="n">
-        <v>29745.5548223</v>
+        <v>8154.9431622</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,3458;41,0</t>
+          <t>21,0;31,6416;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,12403;31,0;41,0</t>
-        </is>
+          <t>21,22958;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>114396.8431</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>734.2234632999999</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>44692.40710223</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>208261.27366553</v>
       </c>
     </row>
     <row r="9">
@@ -7561,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7570,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7592,21 +7808,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>306923.347608</v>
+        <v>246506.9528</v>
       </c>
       <c r="U9" t="n">
-        <v>46004.925744</v>
+        <v>38441.928</v>
       </c>
       <c r="V9" t="n">
-        <v>36080.32983382</v>
+        <v>28526.2293</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7621,7 +7837,7 @@
         <v>930</v>
       </c>
       <c r="AA9" t="n">
-        <v>3180</v>
+        <v>2880</v>
       </c>
       <c r="AB9" t="n">
         <v>2010</v>
@@ -7642,20 +7858,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,17292;41,0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,62018;31,0;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>686927.074475</v>
       </c>
     </row>
     <row r="10">
@@ -7680,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7689,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7711,21 +7943,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>321270.543832</v>
+        <v>256710.76821472</v>
       </c>
       <c r="U10" t="n">
-        <v>47525.472144</v>
+        <v>39803.4619808</v>
       </c>
       <c r="V10" t="n">
-        <v>37647.85588482</v>
+        <v>29872.5548223</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7740,7 +7972,7 @@
         <v>930</v>
       </c>
       <c r="AA10" t="n">
-        <v>3480</v>
+        <v>2880</v>
       </c>
       <c r="AB10" t="n">
         <v>2010</v>
@@ -7761,20 +7993,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,17292;41,0</t>
+          <t>21,0;31,3458;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,62018;31,0;41,0</t>
-        </is>
+          <t>21,12403;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3385.224117725</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>23954.54751774</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>714266.846110465</v>
       </c>
     </row>
     <row r="11">
@@ -7799,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7808,7 +8064,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7830,21 +8086,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>378476.8492772</v>
+        <v>306134.347608</v>
       </c>
       <c r="U11" t="n">
-        <v>54956.566072</v>
+        <v>46161.925744</v>
       </c>
       <c r="V11" t="n">
-        <v>45060.23766704</v>
+        <v>36207.32983382</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -7859,7 +8115,7 @@
         <v>930</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3180</v>
       </c>
       <c r="AB11" t="n">
         <v>2010</v>
@@ -7880,20 +8136,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,34173;41,0</t>
+          <t>21,0;31,17292;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,122547;31,0;41,0</t>
-        </is>
+          <t>21,62018;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>37492.465294975</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>119824.24201609</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>844243.781786065</v>
       </c>
     </row>
     <row r="12">
@@ -7918,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7949,21 +8229,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>335617.740056</v>
+        <v>320481.543832</v>
       </c>
       <c r="U12" t="n">
-        <v>49046.018544</v>
+        <v>47682.472144</v>
       </c>
       <c r="V12" t="n">
-        <v>39215.38193582001</v>
+        <v>37774.85588482</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -7975,13 +8255,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3480</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7996,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8014,6 +8294,30 @@
           <t>21,62018;31,0;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>71599.70647222499</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>119824.24201609</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>878351.022963315</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8022,10 +8326,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8040,13 +8344,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8058,10 +8362,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8072,17 +8376,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>481413.18924768</v>
+        <v>377687.8492772</v>
       </c>
       <c r="U13" t="n">
-        <v>72578.28672187999</v>
+        <v>55113.566072</v>
       </c>
       <c r="V13" t="n">
-        <v>63551.8896201</v>
+        <v>45187.23766704</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8094,44 +8398,68 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AA13" t="n">
         <v>3780</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,21726;41,0</t>
+          <t>21,0;31,34173;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,77971;31,0;41,0</t>
-        </is>
+          <t>21,122547;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>105706.947649475</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>237074.049635005</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1029708.07175948</v>
       </c>
     </row>
     <row r="14">
@@ -8141,10 +8469,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8159,13 +8487,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8191,17 +8519,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>490576.68425136</v>
+        <v>334828.740056</v>
       </c>
       <c r="U14" t="n">
-        <v>73841.98571235999</v>
+        <v>49203.018544</v>
       </c>
       <c r="V14" t="n">
-        <v>64806.12058864</v>
+        <v>39342.38193582001</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8213,44 +8541,68 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AA14" t="n">
         <v>3780</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,25347;41,0</t>
+          <t>21,0;31,17292;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,90966;31,0;41,0</t>
-        </is>
+          <t>21,62018;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>518761.424475</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>105706.947649475</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>119824.24201609</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>912276.2641405651</v>
       </c>
     </row>
     <row r="15">
@@ -8260,10 +8612,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8278,13 +8630,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8296,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8310,17 +8662,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1082820.87740858</v>
+        <v>483913.18924768</v>
       </c>
       <c r="U15" t="n">
-        <v>174243.61114712</v>
+        <v>73386.28672187999</v>
       </c>
       <c r="V15" t="n">
-        <v>170061.24768</v>
+        <v>64325.8896201</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8332,44 +8684,68 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>3780</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,33589;41,0</t>
+          <t>21,0;31,21726;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,120727;31,0;41,0</t>
-        </is>
+          <t>21,77971;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>799857.06467</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>163040.32158455</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>150547.446689677</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1372244.432944227</v>
       </c>
     </row>
     <row r="16">
@@ -8379,10 +8755,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8397,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8415,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8429,17 +8805,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5461517.944576</v>
+        <v>493076.68425136</v>
       </c>
       <c r="U16" t="n">
-        <v>875806.6031840501</v>
+        <v>74649.98571235999</v>
       </c>
       <c r="V16" t="n">
-        <v>819113.6495764999</v>
+        <v>65580.12058864</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -8451,44 +8827,68 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA16" t="n">
         <v>3780</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,82067;41,0</t>
+          <t>21,0;31,25347;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,325733;31,0;41,0</t>
-        </is>
+          <t>21,90966;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>799857.06467</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>163040.32158455</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>175642.292796774</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1397521.279051324</v>
       </c>
     </row>
     <row r="17">
@@ -8498,10 +8898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8516,13 +8916,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8534,10 +8934,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8548,17 +8948,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8781307.493408</v>
+        <v>1120315.87740858</v>
       </c>
       <c r="U17" t="n">
-        <v>1416427.6833265</v>
+        <v>181100.61114712</v>
       </c>
       <c r="V17" t="n">
-        <v>1312986.016398</v>
+        <v>176694.24768</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -8570,78 +8970,102 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AA17" t="n">
         <v>3780</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,82067;41,0</t>
+          <t>21,0;31,33589;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,333527;31,0;41,0</t>
-        </is>
+          <t>21,120727;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1836000.78946</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>374466.0579532</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>232978.021070508</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3398904.018483708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8653,114 +9077,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>221861.37386432</v>
+        <v>5596394.944576</v>
       </c>
       <c r="U18" t="n">
-        <v>39739.49148647999</v>
+        <v>899534.6031840501</v>
       </c>
       <c r="V18" t="n">
-        <v>25587.6875766</v>
+        <v>840953.6495764999</v>
       </c>
       <c r="W18" t="n">
-        <v>900</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>370</v>
+        <v>1910</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>3780</v>
       </c>
       <c r="AB18" t="n">
-        <v>820</v>
+        <v>2990</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,2583;41,0</t>
+          <t>21,0;31,82067;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,8828;31,0;41,0</t>
-        </is>
+          <t>21,325733;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11181501.284805</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2275186.866665025</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>595228.140140795</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16653125.19161082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8772,80 +9220,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>293451.81840112</v>
+        <v>9091025.493408</v>
       </c>
       <c r="U19" t="n">
-        <v>49643.23846392</v>
+        <v>1470460.6833265</v>
       </c>
       <c r="V19" t="n">
-        <v>36020.17526926</v>
+        <v>1362218.016398</v>
       </c>
       <c r="W19" t="n">
-        <v>1100</v>
+        <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>590</v>
+        <v>2820</v>
       </c>
       <c r="AA19" t="n">
-        <v>2100</v>
+        <v>3780</v>
       </c>
       <c r="AB19" t="n">
-        <v>1265</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,3105;41,0</t>
+          <t>21,0;31,82067;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,10663;31,0;41,0</t>
-        </is>
+          <t>21,333527;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>18142440.28397</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3690908.76867935</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>610272.35</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>27086781.80264935</v>
       </c>
     </row>
     <row r="20">
@@ -8855,31 +9327,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8891,80 +9363,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>420662.48506624</v>
+        <v>221861.37386432</v>
       </c>
       <c r="U20" t="n">
-        <v>66055.92725541</v>
+        <v>39739.49148647999</v>
       </c>
       <c r="V20" t="n">
-        <v>54752.86491008</v>
+        <v>25587.6875766</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA20" t="n">
-        <v>3480</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,4993;41,0</t>
+          <t>21,0;31,2583;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,17530;31,0;41,0</t>
-        </is>
+          <t>21,8828;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>547144.2208199999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3536.4159171</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17072.731949382</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>647942.5686864819</v>
       </c>
     </row>
     <row r="21">
@@ -8974,31 +9470,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9010,80 +9506,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>489031.77358806</v>
+        <v>293451.81840112</v>
       </c>
       <c r="U21" t="n">
-        <v>78025.66236780002</v>
+        <v>49643.23846392</v>
       </c>
       <c r="V21" t="n">
-        <v>66344.5684486</v>
+        <v>36020.17526926</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AA21" t="n">
-        <v>3780</v>
+        <v>2100</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,6408;41,0</t>
+          <t>21,0;31,3105;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,22639;31,0;41,0</t>
-        </is>
+          <t>21,10663;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>649357.28101</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>46684.82980625001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20478.360784163</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>850163.921600413</v>
       </c>
     </row>
     <row r="22">
@@ -9093,10 +9613,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9108,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9129,31 +9649,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>560246.5720759999</v>
+        <v>420662.48506624</v>
       </c>
       <c r="U22" t="n">
-        <v>94899.13692136001</v>
+        <v>66055.92725541</v>
       </c>
       <c r="V22" t="n">
-        <v>81322.76764832</v>
+        <v>54752.86491008</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9165,44 +9685,68 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3480</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,7629;41,0</t>
+          <t>21,0;31,4993;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,27047;31,0;41,0</t>
-        </is>
+          <t>21,17530;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>823118.7784950001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>113608.219746225</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>33273.658120304</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1202932.356361529</v>
       </c>
     </row>
     <row r="23">
@@ -9212,10 +9756,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9230,13 +9774,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9248,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9262,17 +9806,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>705783.027552</v>
+        <v>489031.77358806</v>
       </c>
       <c r="U23" t="n">
-        <v>129574.33851985</v>
+        <v>78025.66236780002</v>
       </c>
       <c r="V23" t="n">
-        <v>111822.2871045</v>
+        <v>66344.5684486</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -9284,44 +9828,354 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA23" t="n">
         <v>3780</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,6408;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,22639;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>898861.513285</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>183226.250027325</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>42830.09919300499</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1421164.11250533</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>63</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>560246.5720759999</v>
+      </c>
+      <c r="U24" t="n">
+        <v>94899.13692136001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>81322.76764832</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,7629;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,27047;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1018522.63282</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>207699.9938389</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51285.054152324</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1695658.530811224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>63</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>705783.027552</v>
+      </c>
+      <c r="U25" t="n">
+        <v>129574.33851985</v>
+      </c>
+      <c r="V25" t="n">
+        <v>111822.2871045</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,9591;41,0</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,37379;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1267423.145285</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>258523.384326425</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>69406.93457841501</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2257282.11418984</v>
       </c>
     </row>
   </sheetData>
